--- a/businessdomain/rrhh/src/main/resources/static/Formato de Autorización de Permisos o Licencia.xlsx
+++ b/businessdomain/rrhh/src/main/resources/static/Formato de Autorización de Permisos o Licencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sirimv2\microservices\simparent\businessdomain\rrhh\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9FEBF8-856D-41CE-BFBD-71A08AA64757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFA0851-4957-4281-826D-E74FC7A6730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -673,6 +670,66 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,74 +778,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1209,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:O39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,13 +1254,13 @@
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="34" t="s">
         <v>23</v>
       </c>
@@ -1273,13 +1270,13 @@
     </row>
     <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
       <c r="N3" s="34" t="s">
         <v>24</v>
       </c>
@@ -1288,49 +1285,49 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="67"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="2:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1381,12 +1378,12 @@
     </row>
     <row r="9" spans="2:15" s="25" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
@@ -1412,21 +1409,21 @@
         <v>16</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="52" t="s">
+      <c r="L11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
     </row>
     <row r="12" spans="2:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="E12" s="18"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
     </row>
     <row r="13" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
@@ -1435,27 +1432,27 @@
         <v>30</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="55" t="s">
+      <c r="M13" s="57"/>
+      <c r="N13" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="56"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="2:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="E14" s="18"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="57" t="s">
+      <c r="M14" s="75"/>
+      <c r="N14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="O14" s="59"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
@@ -1464,19 +1461,19 @@
         <v>15</v>
       </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="60"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="76"/>
     </row>
     <row r="16" spans="2:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="E16" s="18"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="60"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="76"/>
     </row>
     <row r="17" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -1485,19 +1482,19 @@
         <v>20</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="60"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="76"/>
     </row>
     <row r="18" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="E18" s="18"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="60"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="76"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
@@ -1506,20 +1503,20 @@
         <v>13</v>
       </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="60"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="76"/>
     </row>
     <row r="20" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="17"/>
       <c r="E20" s="18"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="60"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="76"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -1528,19 +1525,19 @@
         <v>22</v>
       </c>
       <c r="K21" s="10"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="60"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="76"/>
     </row>
     <row r="22" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="E22" s="18"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="60"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="76"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
@@ -1549,23 +1546,23 @@
         <v>21</v>
       </c>
       <c r="K23" s="10"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="76"/>
     </row>
     <row r="24" spans="2:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="E24" s="18"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="58" t="s">
+      <c r="L24" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="58" t="s">
+      <c r="M24" s="77"/>
+      <c r="N24" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="O24" s="61"/>
+      <c r="O24" s="77"/>
     </row>
     <row r="25" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
@@ -1574,19 +1571,19 @@
         <v>31</v>
       </c>
       <c r="K25" s="10"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="61"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="77"/>
     </row>
     <row r="26" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="E26" s="18"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="61"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="77"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
@@ -1595,19 +1592,19 @@
         <v>32</v>
       </c>
       <c r="K27" s="10"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="61"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="77"/>
     </row>
     <row r="28" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="E28" s="18"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="61"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="77"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
@@ -1616,19 +1613,19 @@
         <v>33</v>
       </c>
       <c r="K29" s="10"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="61"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="77"/>
     </row>
     <row r="30" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="E30" s="18"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="61"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="77"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
@@ -1637,23 +1634,23 @@
         <v>34</v>
       </c>
       <c r="K31" s="10"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="61"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="77"/>
     </row>
     <row r="32" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="E32" s="18"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="62" t="s">
+      <c r="L32" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="64"/>
-      <c r="N32" s="62" t="s">
+      <c r="M32" s="49"/>
+      <c r="N32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="66"/>
+      <c r="O32" s="53"/>
     </row>
     <row r="33" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
@@ -1662,19 +1659,19 @@
         <v>35</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="67"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="34" spans="2:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="E34" s="18"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="67"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
@@ -1683,20 +1680,20 @@
         <v>36</v>
       </c>
       <c r="K35" s="10"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="67"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="2:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="17"/>
       <c r="E36" s="18"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="67"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="2:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
@@ -1705,19 +1702,19 @@
         <v>37</v>
       </c>
       <c r="K37" s="10"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="67"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="54"/>
     </row>
     <row r="38" spans="2:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="E38" s="18"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="67"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="54"/>
     </row>
     <row r="39" spans="2:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -1726,10 +1723,10 @@
         <v>14</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="68"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="55"/>
     </row>
     <row r="40" spans="2:15" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
@@ -1749,21 +1746,21 @@
     </row>
     <row r="41" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="71"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="41"/>
     </row>
     <row r="42" spans="2:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
@@ -1780,15 +1777,15 @@
       <c r="M42" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="72"/>
-      <c r="O42" s="73"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="14"/>
@@ -1827,17 +1824,17 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
-      <c r="H48" s="76" t="s">
+      <c r="H48" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="M48" s="76" t="s">
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="M48" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="N48" s="76"/>
-      <c r="O48" s="77"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="47"/>
     </row>
     <row r="49" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
@@ -1857,12 +1854,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L14:L23"/>
+    <mergeCell ref="M14:M23"/>
+    <mergeCell ref="N14:N23"/>
+    <mergeCell ref="O14:O23"/>
     <mergeCell ref="L24:L31"/>
     <mergeCell ref="M24:M31"/>
     <mergeCell ref="N24:N31"/>
@@ -1871,20 +1876,12 @@
     <mergeCell ref="M32:M39"/>
     <mergeCell ref="N32:N39"/>
     <mergeCell ref="O32:O39"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="L14:L23"/>
-    <mergeCell ref="M14:M23"/>
-    <mergeCell ref="N14:N23"/>
-    <mergeCell ref="O14:O23"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="M48:O48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.32" bottom="0.28999999999999998" header="0.3" footer="0.22"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
